--- a/public/file/ornek-km-sablonu.xlsx
+++ b/public/file/ornek-km-sablonu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berke Mert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0906679A-2970-4216-A0B0-150518D33C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABADFB-9695-426A-9EDB-9EA6194405E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>PLAKA</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>SAAT</t>
-  </si>
-  <si>
-    <t>26 AEM 228</t>
   </si>
   <si>
     <t>TARIH</t>
@@ -375,7 +372,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,25 +389,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>16000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45830</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
